--- a/umit_files_xlsx/umit_lit.xlsx
+++ b/umit_files_xlsx/umit_lit.xlsx
@@ -3017,12 +3017,12 @@
         <v>626</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Косцы»")</f>
-        <v>Темы «Косцы»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Песня/Образ косцов «Косцы»")</f>
+        <v>Песня/Образ косцов «Косцы»</v>
       </c>
       <c r="P27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),726.0)</f>
-        <v>726</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),727.0)</f>
+        <v>727</v>
       </c>
       <c r="Q27" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тоническая система стихосложения")</f>
@@ -3123,12 +3123,12 @@
         <v>627</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Песня/Образ косцов «Косцы»")</f>
-        <v>Песня/Образ косцов «Косцы»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Главная мысль «Косцы»")</f>
+        <v>Главная мысль «Косцы»</v>
       </c>
       <c r="P28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),727.0)</f>
-        <v>727</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),728.0)</f>
+        <v>728</v>
       </c>
       <c r="Q28" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маяковский В.В. ""А вы могли бы?""")</f>
@@ -3227,12 +3227,12 @@
         <v>628</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Главная мысль «Косцы»")</f>
-        <v>Главная мысль «Косцы»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Лапти»: краткие сведения")</f>
+        <v>«Лапти»: краткие сведения</v>
       </c>
       <c r="P29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),728.0)</f>
-        <v>728</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),729.0)</f>
+        <v>729</v>
       </c>
       <c r="Q29" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маяковский В.В. ""Послушайте""")</f>
@@ -3331,12 +3331,12 @@
         <v>629</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"«Лапти»: краткие сведения")</f>
-        <v>«Лапти»: краткие сведения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет «Лапти»")</f>
+        <v>Сюжет «Лапти»</v>
       </c>
       <c r="P30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),729.0)</f>
-        <v>729</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),730.0)</f>
+        <v>730</v>
       </c>
       <c r="Q30" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маяковский В.В. ""Скрипка и немножко нервно""")</f>
@@ -3437,12 +3437,12 @@
         <v>630</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сюжет «Лапти»")</f>
-        <v>Сюжет «Лапти»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смысл названия «Лапти»")</f>
+        <v>Смысл названия «Лапти»</v>
       </c>
       <c r="P31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),730.0)</f>
-        <v>730</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),731.0)</f>
+        <v>731</v>
       </c>
       <c r="Q31" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маяковский В.В. ""Лиличка""")</f>
@@ -3541,12 +3541,12 @@
         <v>631</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смысл названия «Лапти»")</f>
-        <v>Смысл названия «Лапти»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Нефёдушки")</f>
+        <v>Образ Нефёдушки</v>
       </c>
       <c r="P32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),731.0)</f>
-        <v>731</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),732.0)</f>
+        <v>732</v>
       </c>
       <c r="Q32" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маяковский В.В. ""Юбилейное""")</f>
@@ -3645,12 +3645,12 @@
         <v>632</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образ Нефёдушки")</f>
-        <v>Образ Нефёдушки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мать больного ребенка «Лапти»")</f>
+        <v>Мать больного ребенка «Лапти»</v>
       </c>
       <c r="P33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),732.0)</f>
-        <v>732</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),733.0)</f>
+        <v>733</v>
       </c>
       <c r="Q33" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маяковский В.В. ""Прозаседавшиеся""")</f>
@@ -3745,12 +3745,12 @@
         <v>633</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мать больного ребенка «Лапти»")</f>
-        <v>Мать больного ребенка «Лапти»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ребенок «Лапти»")</f>
+        <v>Ребенок «Лапти»</v>
       </c>
       <c r="P34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),733.0)</f>
-        <v>733</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),734.0)</f>
+        <v>734</v>
       </c>
       <c r="Q34" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маяковский В.В. ""Нате!""")</f>
@@ -3845,12 +3845,12 @@
         <v>634</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ребенок «Лапти»")</f>
-        <v>Ребенок «Лапти»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анненский И.Ф.")</f>
+        <v>Анненский И.Ф.</v>
       </c>
       <c r="P35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),734.0)</f>
-        <v>734</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),735.0)</f>
+        <v>735</v>
       </c>
       <c r="Q35" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Маяковский В.В. ""Хорошее отношение к лошадям""")</f>
@@ -3945,12 +3945,12 @@
         <v>635</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анненский И.Ф.")</f>
-        <v>Анненский И.Ф.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Белый А. ")</f>
+        <v>Белый А. </v>
       </c>
       <c r="P36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),735.0)</f>
-        <v>735</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),743.0)</f>
+        <v>743</v>
       </c>
       <c r="Q36" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биография Есенина С.А. ")</f>
@@ -4045,12 +4045,12 @@
         <v>636</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Белый А. ")</f>
-        <v>Белый А. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Алёнушка»")</f>
+        <v>Бунин И.А. – «Алёнушка»</v>
       </c>
       <c r="P37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),743.0)</f>
-        <v>743</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
+        <v>744</v>
       </c>
       <c r="Q37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности имажинизма")</f>
@@ -4145,12 +4145,12 @@
         <v>637</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Алёнушка»")</f>
-        <v>Бунин И.А. – «Алёнушка»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Вечер»")</f>
+        <v>Бунин И.А. – «Вечер»</v>
       </c>
       <c r="P38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
-        <v>744</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),745.0)</f>
+        <v>745</v>
       </c>
       <c r="Q38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Гой ты, Русь, моя родная"": анализ произведения")</f>
@@ -4245,12 +4245,12 @@
         <v>638</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Вечер»")</f>
-        <v>Бунин И.А. – «Вечер»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Дурман»")</f>
+        <v>Бунин И.А. – «Дурман»</v>
       </c>
       <c r="P39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),745.0)</f>
-        <v>745</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),746.0)</f>
+        <v>746</v>
       </c>
       <c r="Q39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Не бродить, не мять в кустах багряных..."": анализ произведения")</f>
@@ -4345,12 +4345,12 @@
         <v>639</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «Дурман»")</f>
-        <v>Бунин И.А. – «Дурман»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «И цветы, и шмели, и трава, и колосья…»")</f>
+        <v>Бунин И.А. – «И цветы, и шмели, и трава, и колосья…»</v>
       </c>
       <c r="P40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),746.0)</f>
-        <v>746</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),747.0)</f>
+        <v>747</v>
       </c>
       <c r="Q40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Мы теперь выходим понемногу..."": анализ произведения")</f>
@@ -4445,106 +4445,6 @@
         <v>640</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бунин И.А. – «И цветы, и шмели, и трава, и колосья…»")</f>
-        <v>Бунин И.А. – «И цветы, и шмели, и трава, и колосья…»</v>
-      </c>
-      <c r="P41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),747.0)</f>
-        <v>747</v>
-      </c>
-      <c r="Q41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Письмо матери"": анализ произведения")</f>
-        <v>Есенин С.А. "Письмо матери": анализ произведения</v>
-      </c>
-      <c r="R41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),840.0)</f>
-        <v>840</v>
-      </c>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твардовский А.Т. ""Вся суть в одном-единственном завете..."": анализ произведения")</f>
-        <v>Твардовский А.Т. "Вся суть в одном-единственном завете...": анализ произведения</v>
-      </c>
-      <c r="V41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1040.0)</f>
-        <v>1040</v>
-      </c>
-      <c r="W41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Самойлов Д.С. ")</f>
-        <v>Самойлов Д.С. </v>
-      </c>
-      <c r="X41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
-        <v>1153</v>
-      </c>
-      <c r="Y41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Г. Гейне")</f>
-        <v>Г. Гейне</v>
-      </c>
-      <c r="Z41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1240.0)</f>
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тип")</f>
-        <v>Тип</v>
-      </c>
-      <c r="B42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
-        <v>41</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Роль пейзажа в повести  – ""Бедная Лиза""")</f>
-        <v>Роль пейзажа в повести  – "Бедная Лиза"</v>
-      </c>
-      <c r="D42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проблема «Выстрел»")</f>
-        <v>Проблема «Выстрел»</v>
-      </c>
-      <c r="F42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
-      </c>
-      <c r="G42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Композиция и сюжет «Мцыри»")</f>
-        <v>Композиция и сюжет «Мцыри»</v>
-      </c>
-      <c r="H42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.0)</f>
-        <v>341</v>
-      </c>
-      <c r="I42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Варвара Ивановна Кабанова")</f>
-        <v>Варвара Ивановна Кабанова</v>
-      </c>
-      <c r="J42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
-        <v>441</v>
-      </c>
-      <c r="K42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Кому на Руси жить хорошо»")</f>
-        <v>Темы «Кому на Руси жить хорошо»</v>
-      </c>
-      <c r="L42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),541.0)</f>
-        <v>541</v>
-      </c>
-      <c r="M42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"История создания ""Преступление и наказание""")</f>
-        <v>История создания "Преступление и наказание"</v>
-      </c>
-      <c r="N42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),641.0)</f>
-        <v>641</v>
-      </c>
-      <c r="O42" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
 Бунин И.А. –  «У зверя
 есть гнездо, у птицы есть нора…»")</f>
@@ -4552,9 +4452,109 @@
 Бунин И.А. –  «У зверя
 есть гнездо, у птицы есть нора…»</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P41" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),748.0)</f>
         <v>748</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Письмо матери"": анализ произведения")</f>
+        <v>Есенин С.А. "Письмо матери": анализ произведения</v>
+      </c>
+      <c r="R41" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),840.0)</f>
+        <v>840</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Твардовский А.Т. ""Вся суть в одном-единственном завете..."": анализ произведения")</f>
+        <v>Твардовский А.Т. "Вся суть в одном-единственном завете...": анализ произведения</v>
+      </c>
+      <c r="V41" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1040.0)</f>
+        <v>1040</v>
+      </c>
+      <c r="W41" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Самойлов Д.С. ")</f>
+        <v>Самойлов Д.С. </v>
+      </c>
+      <c r="X41" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
+        <v>1153</v>
+      </c>
+      <c r="Y41" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Г. Гейне")</f>
+        <v>Г. Гейне</v>
+      </c>
+      <c r="Z41" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1240.0)</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тип")</f>
+        <v>Тип</v>
+      </c>
+      <c r="B42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Роль пейзажа в повести  – ""Бедная Лиза""")</f>
+        <v>Роль пейзажа в повести  – "Бедная Лиза"</v>
+      </c>
+      <c r="D42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проблема «Выстрел»")</f>
+        <v>Проблема «Выстрел»</v>
+      </c>
+      <c r="F42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
+        <v>241</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Композиция и сюжет «Мцыри»")</f>
+        <v>Композиция и сюжет «Мцыри»</v>
+      </c>
+      <c r="H42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.0)</f>
+        <v>341</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Варвара Ивановна Кабанова")</f>
+        <v>Варвара Ивановна Кабанова</v>
+      </c>
+      <c r="J42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
+        <v>441</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темы «Кому на Руси жить хорошо»")</f>
+        <v>Темы «Кому на Руси жить хорошо»</v>
+      </c>
+      <c r="L42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),541.0)</f>
+        <v>541</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"История создания ""Преступление и наказание""")</f>
+        <v>История создания "Преступление и наказание"</v>
+      </c>
+      <c r="N42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),641.0)</f>
+        <v>641</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Ассаргадон»")</f>
+        <v>Брюсов В.Я. – «Ассаргадон»</v>
+      </c>
+      <c r="P42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),749.0)</f>
+        <v>749</v>
       </c>
       <c r="Q42" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Спит ковыль. Равнина дорогая..."": анализ произведения")</f>
@@ -4649,12 +4649,12 @@
         <v>642</v>
       </c>
       <c r="O43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Ассаргадон»")</f>
-        <v>Брюсов В.Я. – «Ассаргадон»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Грядущие гунны»")</f>
+        <v>Брюсов В.Я. – «Грядущие гунны»</v>
       </c>
       <c r="P43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),749.0)</f>
-        <v>749</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="Q43" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Шаганэ ты моя, Шаганэ..."": анализ произведения")</f>
@@ -4749,12 +4749,12 @@
         <v>643</v>
       </c>
       <c r="O44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Грядущие гунны»")</f>
-        <v>Брюсов В.Я. – «Грядущие гунны»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Есть что-то позорное в мощи природы...»")</f>
+        <v>Брюсов В.Я. – «Есть что-то позорное в мощи природы...»</v>
       </c>
       <c r="P44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),751.0)</f>
+        <v>751</v>
       </c>
       <c r="Q44" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Береза"": жанр, тема, худ. средства")</f>
@@ -4849,12 +4849,12 @@
         <v>644</v>
       </c>
       <c r="O45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Есть что-то позорное в мощи природы...»")</f>
-        <v>Брюсов В.Я. – «Есть что-то позорное в мощи природы...»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Неколебимой истине...» ")</f>
+        <v>Брюсов В.Я. – «Неколебимой истине...» </v>
       </c>
       <c r="P45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),751.0)</f>
-        <v>751</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),752.0)</f>
+        <v>752</v>
       </c>
       <c r="Q45" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Пороша"": жанр, тема, худ. средства")</f>
@@ -4949,12 +4949,12 @@
         <v>645</v>
       </c>
       <c r="O46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Неколебимой истине...» ")</f>
-        <v>Брюсов В.Я. – «Неколебимой истине...» </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Каменщик»")</f>
+        <v>Брюсов В.Я. – «Каменщик»</v>
       </c>
       <c r="P46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),752.0)</f>
-        <v>752</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),753.0)</f>
+        <v>753</v>
       </c>
       <c r="Q46" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Край любимый! Сердцу снятся..."": жанр, тема, худ. средства")</f>
@@ -5049,12 +5049,12 @@
         <v>646</v>
       </c>
       <c r="O47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Каменщик»")</f>
-        <v>Брюсов В.Я. – «Каменщик»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. –  «Творчество»")</f>
+        <v>Брюсов В.Я. –  «Творчество»</v>
       </c>
       <c r="P47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),753.0)</f>
-        <v>753</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),754.0)</f>
+        <v>754</v>
       </c>
       <c r="Q47" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Я покинул родимый дом..."": жанр, тема, худ. средства")</f>
@@ -5149,12 +5149,12 @@
         <v>647</v>
       </c>
       <c r="O48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. –  «Творчество»")</f>
-        <v>Брюсов В.Я. –  «Творчество»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Родной язык»")</f>
+        <v>Брюсов В.Я. – «Родной язык»</v>
       </c>
       <c r="P48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),754.0)</f>
-        <v>754</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),755.0)</f>
+        <v>755</v>
       </c>
       <c r="Q48" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Не жалею, не зову, не плачу..."": анализ произведения")</f>
@@ -5249,12 +5249,12 @@
         <v>648</v>
       </c>
       <c r="O49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Родной язык»")</f>
-        <v>Брюсов В.Я. – «Родной язык»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Юному поэту»")</f>
+        <v>Брюсов В.Я. – «Юному поэту»</v>
       </c>
       <c r="P49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),755.0)</f>
-        <v>755</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),756.0)</f>
+        <v>756</v>
       </c>
       <c r="Q49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Русь Советская"": анализ произведения")</f>
@@ -5349,12 +5349,14 @@
         <v>649</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я. – «Юному поэту»")</f>
-        <v>Брюсов В.Я. – «Юному поэту»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
+Брюсов В.Я. – «Я»")</f>
+        <v>
+Брюсов В.Я. – «Я»</v>
       </c>
       <c r="P50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),756.0)</f>
-        <v>756</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),757.0)</f>
+        <v>757</v>
       </c>
       <c r="Q50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""О красном вечере задумалась дорога..."": анализ произведения")</f>
@@ -5449,14 +5451,12 @@
         <v>650</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-Брюсов В.Я. – «Я»")</f>
-        <v>
-Брюсов В.Я. – «Я»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Волошин М.А.")</f>
+        <v>Волошин М.А.</v>
       </c>
       <c r="P51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),757.0)</f>
-        <v>757</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),758.0)</f>
+        <v>758</v>
       </c>
       <c r="Q51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Запели тесаные дроги..."": анализ произведения")</f>
@@ -5551,12 +5551,12 @@
         <v>651</v>
       </c>
       <c r="O52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Волошин М.А.")</f>
-        <v>Волошин М.А.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Клюев Н.А.")</f>
+        <v>Клюев Н.А.</v>
       </c>
       <c r="P52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),758.0)</f>
-        <v>758</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),773.0)</f>
+        <v>773</v>
       </c>
       <c r="Q52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Русь"": анализ произведения")</f>
@@ -5651,12 +5651,12 @@
         <v>652</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Клюев Н.А.")</f>
-        <v>Клюев Н.А.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Северянин И.")</f>
+        <v>Северянин И.</v>
       </c>
       <c r="P53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),773.0)</f>
-        <v>773</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),774.0)</f>
+        <v>774</v>
       </c>
       <c r="Q53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Пушкину"": анализ произведения")</f>
@@ -5751,12 +5751,12 @@
         <v>653</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Северянин И.")</f>
-        <v>Северянин И.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сологуб Ф.К.")</f>
+        <v>Сологуб Ф.К.</v>
       </c>
       <c r="P54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),774.0)</f>
-        <v>774</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),775.0)</f>
+        <v>775</v>
       </c>
       <c r="Q54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Я иду долиной. На затылке кепи..."": анализ произведения")</f>
@@ -5851,12 +5851,12 @@
         <v>654</v>
       </c>
       <c r="O55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сологуб Ф.К.")</f>
-        <v>Сологуб Ф.К.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ходасевич В.Ф.")</f>
+        <v>Ходасевич В.Ф.</v>
       </c>
       <c r="P55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),775.0)</f>
-        <v>775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),786.0)</f>
+        <v>786</v>
       </c>
       <c r="Q55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Есенин С.А. ""Низкий дом с голубыми ставнями..."": анализ произведения")</f>
@@ -5945,12 +5945,12 @@
         <v>655</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ходасевич В.Ф.")</f>
-        <v>Ходасевич В.Ф.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вишневый сад”: особенности конфликта")</f>
+        <v>Вишневый сад”: особенности конфликта</v>
       </c>
       <c r="P56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),786.0)</f>
-        <v>786</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),787.0)</f>
+        <v>787</v>
       </c>
       <c r="Q56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лирика Цветаевой М.И.")</f>
@@ -6039,12 +6039,12 @@
         <v>656</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вишневый сад”: особенности конфликта")</f>
-        <v>Вишневый сад”: особенности конфликта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
+        <v>Бальмонт К.Д.</v>
       </c>
       <c r="P57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),787.0)</f>
-        <v>787</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),788.0)</f>
+        <v>788</v>
       </c>
       <c r="Q57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биография Цветаевой М.И.")</f>
@@ -6133,12 +6133,12 @@
         <v>657</v>
       </c>
       <c r="O58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бальмонт К.Д.")</f>
-        <v>Бальмонт К.Д.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я.")</f>
+        <v>Брюсов В.Я.</v>
       </c>
       <c r="P58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),788.0)</f>
-        <v>788</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),789.0)</f>
+        <v>789</v>
       </c>
       <c r="Q58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Моим стихам, написанным так рано…»")</f>
@@ -6227,12 +6227,12 @@
         <v>658</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я.")</f>
-        <v>Брюсов В.Я.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
+        <v>Гумилёв Н.С.</v>
       </c>
       <c r="P59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),789.0)</f>
-        <v>789</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),790.0)</f>
+        <v>790</v>
       </c>
       <c r="Q59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Имя твое - птица в руке... («Стихи к Блоку»)»")</f>
@@ -6321,12 +6321,12 @@
         <v>659</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гумилёв Н.С.")</f>
-        <v>Гумилёв Н.С.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
+        <v>Хлебников В.В.</v>
       </c>
       <c r="P60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),790.0)</f>
-        <v>790</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),791.0)</f>
+        <v>791</v>
       </c>
       <c r="Q60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Кто создан из камня, кто создан из глины…»")</f>
@@ -6415,12 +6415,12 @@
         <v>660</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хлебников В.В.")</f>
-        <v>Хлебников В.В.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Брюсов В.Я.")</f>
+        <v>Брюсов В.Я.</v>
       </c>
       <c r="P61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),791.0)</f>
-        <v>791</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),792.0)</f>
+        <v>792</v>
       </c>
       <c r="Q61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветаева М.И. – «Тоска по родине! Давно…»")</f>
@@ -9030,8 +9030,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),592.0)</f>
         <v>592</v>
       </c>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="M93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Л.Н. Толстой «Детство»")</f>
+        <v>Л.Н. Толстой «Детство»</v>
+      </c>
+      <c r="N93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692.0)</f>
+        <v>692</v>
+      </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -9088,8 +9094,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),593.0)</f>
         <v>593</v>
       </c>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="M94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ф.М. Достоевский «Бедные люди»")</f>
+        <v>Ф.М. Достоевский «Бедные люди»</v>
+      </c>
+      <c r="N94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693.0)</f>
+        <v>693</v>
+      </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -9288,14 +9300,26 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="E98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пушкин А.С. — «Песнь о вещем Олеге»")</f>
+        <v>Пушкин А.С. — «Песнь о вещем Олеге»</v>
+      </c>
+      <c r="F98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
+      </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+      <c r="K98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лирика А.К. Толстого")</f>
+        <v>Лирика А.К. Толстого</v>
+      </c>
+      <c r="L98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),597.0)</f>
+        <v>597</v>
+      </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -9758,8 +9782,14 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Древнерусская литература")</f>
+        <v>Древнерусская литература</v>
+      </c>
+      <c r="B110" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1310.0)</f>
+        <v>1310</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
